--- a/Specification file/華南銀行-數位金融部-客戶API欄位輸出文件_v4.02.xlsx
+++ b/Specification file/華南銀行-數位金融部-客戶API欄位輸出文件_v4.02.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705E7282-433E-2840-9A44-1B3962B9D072}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C6957C-AD27-B24C-854D-3DB8D6A4D6C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
   <si>
     <t>Field</t>
   </si>
@@ -495,6 +495,34 @@
     <t>is_app_bank</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>最大值：999,999,999,999
+平均值：1,000,000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>製造業：27.3%
+金融及保險業：15.9%
+教育業：6.6%
+批發及零售業：15.3%
+住宿及餐飲業：16.8%
+其他服務業：9.5%
+其他：8.6%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人企業：45.3%
+銀行：12.9%
+學校：6.6%
+公共企業：15.3%
+其他：19.9%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值：99
+平均值：0.23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -603,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -743,6 +771,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -751,7 +794,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -856,6 +899,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1173,7 +1225,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1336,6 +1388,9 @@
       <c r="F7" s="16" t="s">
         <v>20</v>
       </c>
+      <c r="G7" s="43" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="F8" s="8"/>
@@ -1355,7 +1410,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1431,7 +1486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1">
+    <row r="4" spans="1:8" ht="106" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
@@ -1449,6 +1504,9 @@
       </c>
       <c r="F4" s="13" t="s">
         <v>43</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="256" thickBot="1">
@@ -1498,7 +1556,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31" thickBot="1">
+    <row r="7" spans="1:8" ht="76" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -1517,7 +1575,9 @@
       <c r="F7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="44" t="s">
+        <v>97</v>
+      </c>
       <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="46" thickBot="1">
@@ -1585,7 +1645,9 @@
       <c r="F10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="45" t="s">
+        <v>98</v>
+      </c>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" ht="31" thickBot="1">
@@ -1610,7 +1672,7 @@
       <c r="G11" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="46" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1634,7 +1696,7 @@
       <c r="G12" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="43"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="31" thickBot="1">
       <c r="A13" s="36" t="s">
@@ -1658,7 +1720,7 @@
       <c r="G13" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="43"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="46" thickBot="1">
       <c r="A14" s="36" t="s">
@@ -1680,7 +1742,7 @@
       <c r="G14" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="43"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="16" spans="1:8">
       <c r="F16" s="24"/>
